--- a/demonstration_output/batch_test/0511Wextra_iter9.xlsx
+++ b/demonstration_output/batch_test/0511Wextra_iter9.xlsx
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D8" t="str">
         <v>1.0</v>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D9" t="str">
         <v>2</v>
@@ -533,7 +533,7 @@
         <v>256</v>
       </c>
       <c r="G9" t="str">
-        <v>20480.00</v>
+        <v>20992.00</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D10" t="str">
         <v>3</v>
@@ -562,7 +562,7 @@
         <v>472</v>
       </c>
       <c r="G10" t="str">
-        <v>33984.00</v>
+        <v>42952.00</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="D11" t="str">
         <v>4</v>
@@ -591,7 +591,7 @@
         <v>662</v>
       </c>
       <c r="G11" t="str">
-        <v>64214.00</v>
+        <v>21846.00</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="D12" t="str">
         <v>2.0</v>
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D13" t="str">
         <v>6</v>
@@ -649,7 +649,7 @@
         <v>136</v>
       </c>
       <c r="G13" t="str">
-        <v>5440.00</v>
+        <v>7616.00</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D14" t="str">
         <v>3.0</v>
@@ -678,7 +678,7 @@
         <v>23</v>
       </c>
       <c r="G14" t="str">
-        <v>782.00</v>
+        <v>667.00</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="D15" t="str">
         <v>8</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="D16" t="str">
         <v>9</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="D17" t="str">
         <v>10</v>
@@ -799,10 +799,10 @@
         <v/>
       </c>
       <c r="G19" t="str">
-        <v>124900.00</v>
+        <v>94073.00</v>
       </c>
       <c r="H19" t="str">
-        <v>124900.00</v>
+        <v>94073.00</v>
       </c>
       <c r="I19" t="str">
         <v/>
@@ -857,10 +857,10 @@
         <v/>
       </c>
       <c r="G21" t="str">
-        <v>124900.00</v>
+        <v>94073.00</v>
       </c>
       <c r="H21" t="str">
-        <v>124900.00</v>
+        <v>94073.00</v>
       </c>
       <c r="I21" t="str">
         <v/>

--- a/demonstration_output/batch_test/0511Wextra_iter9.xlsx
+++ b/demonstration_output/batch_test/0511Wextra_iter9.xlsx
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D8" t="str">
         <v>1.0</v>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="D9" t="str">
         <v>2</v>
@@ -533,7 +533,7 @@
         <v>256</v>
       </c>
       <c r="G9" t="str">
-        <v>20992.00</v>
+        <v>3584.00</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="D10" t="str">
         <v>3</v>
@@ -562,7 +562,7 @@
         <v>472</v>
       </c>
       <c r="G10" t="str">
-        <v>42952.00</v>
+        <v>8024.00</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D11" t="str">
         <v>4</v>
@@ -591,7 +591,7 @@
         <v>662</v>
       </c>
       <c r="G11" t="str">
-        <v>21846.00</v>
+        <v>17212.00</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="D12" t="str">
         <v>2.0</v>
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13" t="str">
         <v>6</v>
@@ -649,7 +649,7 @@
         <v>136</v>
       </c>
       <c r="G13" t="str">
-        <v>7616.00</v>
+        <v>7208.00</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D14" t="str">
         <v>3.0</v>
@@ -678,7 +678,7 @@
         <v>23</v>
       </c>
       <c r="G14" t="str">
-        <v>667.00</v>
+        <v>736.00</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D15" t="str">
         <v>8</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D16" t="str">
         <v>9</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="D17" t="str">
         <v>10</v>
@@ -799,10 +799,10 @@
         <v/>
       </c>
       <c r="G19" t="str">
-        <v>94073.00</v>
+        <v>36764.00</v>
       </c>
       <c r="H19" t="str">
-        <v>94073.00</v>
+        <v>36764.00</v>
       </c>
       <c r="I19" t="str">
         <v/>
@@ -857,10 +857,10 @@
         <v/>
       </c>
       <c r="G21" t="str">
-        <v>94073.00</v>
+        <v>36764.00</v>
       </c>
       <c r="H21" t="str">
-        <v>94073.00</v>
+        <v>36764.00</v>
       </c>
       <c r="I21" t="str">
         <v/>
